--- a/菜品贴纸打印-更新.xlsx
+++ b/菜品贴纸打印-更新.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="产品" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="售价" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6097,885 +6095,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>价格</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>类型</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>14盒饭</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>14</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>盒饭</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>16盒饭</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>盒饭</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>17盒饭</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>17</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>盒饭</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>12盒饭</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>12</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>盒饭</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>辣白菜+辣炒鸡杂-清真</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>16</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>清真</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>羊脊骨饭+泡菜-清真</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>23</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>清真</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>扒牛头肉饭+韩式花菜-清真</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>24</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>清真</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>罐焖羊肉-清真</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>26</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>清真</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>高粱米水饭+土豆茄子+咸鸭蛋-清真</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>14</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>清真</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>蜜汁烤肉饭-清真</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>18</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>清真</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>焦熘肉段饭</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>20</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汉族</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>水煮鱼</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>22</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汉族</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>肘子饭</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>22</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>汉族</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>红烧猪小排</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>33</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汉族</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>单价</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>单位</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>公斤价</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>熏干豆腐卷3元一个，5元俩</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>熏干豆腐卷3元一个，5元俩</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>两个</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>糖醋猪肉丸子</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>份</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>炸全翅</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>份</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>虎皮鸡爪</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>份</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>香酥鸭</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>份</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>肘子</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>斤</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>67.59999999999999</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>猪蹄</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>35</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>斤</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>鸭头 鸭脖</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>鸭锁骨 鸭翅</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>鸭胗</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>甜辣鸭腿</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>甜辣鸭板肠</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>48</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>斤</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>甜辣鸭肠</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>60</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>斤</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>鸭货素菜</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>斤</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>33.6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>甜辣鸭腿</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>香酥鸡腿</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>香酥鸡 （小）</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>香酥鸡</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>香酥鸭</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>香酥鸡脖</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>32</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>斤</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>酱牛肉</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>70</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>斤</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>牛腱子</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>88</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>斤</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>牛板筋</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>55</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>斤</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>牛蹄筋</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>60</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>斤</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>牛肚</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>60</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>斤</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>小羊腿</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>烤羊排</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>68</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>斤</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>松花鸡腿</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>16</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>粉肠</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>斤</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>23.6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>枣肠-特价</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>斤</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>37.6</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>枣肠-原价</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>斤</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>49.6</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>手工肠</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>6</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>熏护心肉</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>斤</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>87.59999999999999</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>大棒骨</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>斤</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>39.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>